--- a/similarities/split_global/harmonic_similarity_timestamps_353.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_353.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['E/5', 'B', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:00.160000', '0:01:04.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:59.327006', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=60.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=59.327006</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:16.760000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.860000', '0:00:25.500000')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.820000', '0:01:04.420000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=6.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=55.82']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.260000', '0:00:24.340000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=17.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:03.580000', '0:01:06.360000')]</t>
+          <t>('0:00:10.820000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:25.780000', '0:00:35.100000')]</t>
+          <t>('0:00:47.020000', '0:00:55.760000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=25.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:24.500000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=24.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:25.180000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C#:dim7']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:dim7']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:43.200000', '0:00:47.350000')]</t>
+          <t>('0:00:26.360000', '0:00:34.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:37.410000', '0:01:39.720000')]</t>
+          <t>('0:00:07.360000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=43.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=97.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:57.636679')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Eb', 'F:min', 'Bb:7', 'Eb', 'F:min', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+          <t>('0:00:22.460000', '0:00:33.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:00:06.260000', '0:00:21.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=22.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:59.800000', '0:01:05.420000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=59.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:hdim7', 'C:7', 'F:min']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:05.820000', '0:01:24.640000')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.600000', '0:00:22.120000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=13.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Ab/5', 'Eb:maj'], ['Eb:maj', 'Ab:maj', 'Eb:maj'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'C/3'], ['C', 'F', 'C/3'], ['G', 'C', 'G/3']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:03:26.313000', '0:03:27.541000'), ('0:01:43.492000', '0:01:46.823000'), ('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:45.670113', '0:00:48.251979'), ('0:00:50.779465', '0:00:53.344308'), ('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=206.313', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=103.492', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=45.670113', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=50.779465', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
